--- a/График.xlsx
+++ b/График.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -432,10 +432,10 @@
   <cols>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
@@ -445,82 +445,364 @@
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
+    <col width="15" customWidth="1" min="42" max="42"/>
+    <col width="15" customWidth="1" min="43" max="43"/>
+    <col width="15" customWidth="1" min="44" max="44"/>
+    <col width="15" customWidth="1" min="45" max="45"/>
+    <col width="15" customWidth="1" min="46" max="46"/>
+    <col width="15" customWidth="1" min="47" max="47"/>
+    <col width="15" customWidth="1" min="48" max="48"/>
+    <col width="15" customWidth="1" min="49" max="49"/>
+    <col width="15" customWidth="1" min="50" max="50"/>
+    <col width="15" customWidth="1" min="51" max="51"/>
+    <col width="15" customWidth="1" min="52" max="52"/>
+    <col width="15" customWidth="1" min="53" max="53"/>
+    <col width="15" customWidth="1" min="54" max="54"/>
+    <col width="15" customWidth="1" min="55" max="55"/>
+    <col width="15" customWidth="1" min="56" max="56"/>
+    <col width="15" customWidth="1" min="57" max="57"/>
+    <col width="15" customWidth="1" min="58" max="58"/>
+    <col width="15" customWidth="1" min="59" max="59"/>
+    <col width="15" customWidth="1" min="60" max="60"/>
+    <col width="15" customWidth="1" min="61" max="61"/>
+    <col width="15" customWidth="1" min="62" max="62"/>
+    <col width="15" customWidth="1" min="63" max="63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2023-03-21</t>
+          <t>2023-07-02</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2023-03-25</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2023-03-26</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-07-13</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>2023-04-02</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2023-08-05</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2023-08-06</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>2023-08-15</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>2023-08-19</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
         </is>
       </c>
     </row>
@@ -528,54 +810,104 @@
       <c r="A2" t="n">
         <v>100</v>
       </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Ануа - Николаева</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Николаева</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Николаева</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AS3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AU3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AW3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AX3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AY3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
+        </is>
+      </c>
+      <c r="AZ3" s="1" t="inlineStr">
+        <is>
+          <t>Серега</t>
         </is>
       </c>
     </row>
@@ -583,91 +915,56 @@
       <c r="A4" t="n">
         <v>102</v>
       </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>Семенов</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>Семенов</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>Семенов</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>Семенов</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>103</v>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>Николаева</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>Николаева</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>Николаева</t>
-        </is>
-      </c>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>Николаева</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>104</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Гаджимагомедов</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>105</v>
       </c>
+      <c r="AG7" s="1" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
+      <c r="AH7" s="1" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
+      <c r="AI7" s="1" t="inlineStr">
+        <is>
+          <t>Петя</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -678,24 +975,174 @@
       <c r="A9" t="n">
         <v>107</v>
       </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>Вася</t>
+        </is>
+      </c>
+      <c r="AP9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AQ9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AR9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AS9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AT9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AU9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AV9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AW9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AX9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AY9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="AZ9" s="1" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>108</v>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
+      <c r="AP10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AQ10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AR10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AS10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AT10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AU10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AV10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AW10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AX10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AY10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="AZ10" s="1" t="inlineStr">
+        <is>
+          <t>Даша</t>
         </is>
       </c>
     </row>
@@ -728,51 +1175,6 @@
       <c r="A16" t="n">
         <v>204</v>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>Ильин</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -803,120 +1205,15 @@
       <c r="A22" t="n">
         <v>302</v>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>303</v>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>304</v>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Ануа</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Ануа - Шаповалов</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>Шаповалов</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Шаповалов</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>Шаповалов - Бондаренко</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>Бондаренко</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/График.xlsx
+++ b/График.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -36,6 +36,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009FC5E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -51,9 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -430,377 +436,191 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="15" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="15" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="15" customWidth="1" min="25" max="25"/>
-    <col width="15" customWidth="1" min="26" max="26"/>
-    <col width="15" customWidth="1" min="27" max="27"/>
-    <col width="15" customWidth="1" min="28" max="28"/>
-    <col width="15" customWidth="1" min="29" max="29"/>
-    <col width="15" customWidth="1" min="30" max="30"/>
-    <col width="15" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="15" customWidth="1" min="33" max="33"/>
-    <col width="15" customWidth="1" min="34" max="34"/>
-    <col width="15" customWidth="1" min="35" max="35"/>
-    <col width="15" customWidth="1" min="36" max="36"/>
-    <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="15" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="15" customWidth="1" min="40" max="40"/>
-    <col width="15" customWidth="1" min="41" max="41"/>
-    <col width="15" customWidth="1" min="42" max="42"/>
-    <col width="15" customWidth="1" min="43" max="43"/>
-    <col width="15" customWidth="1" min="44" max="44"/>
-    <col width="15" customWidth="1" min="45" max="45"/>
-    <col width="15" customWidth="1" min="46" max="46"/>
-    <col width="15" customWidth="1" min="47" max="47"/>
-    <col width="15" customWidth="1" min="48" max="48"/>
-    <col width="15" customWidth="1" min="49" max="49"/>
-    <col width="15" customWidth="1" min="50" max="50"/>
-    <col width="15" customWidth="1" min="51" max="51"/>
-    <col width="15" customWidth="1" min="52" max="52"/>
-    <col width="15" customWidth="1" min="53" max="53"/>
-    <col width="15" customWidth="1" min="54" max="54"/>
-    <col width="15" customWidth="1" min="55" max="55"/>
-    <col width="15" customWidth="1" min="56" max="56"/>
-    <col width="15" customWidth="1" min="57" max="57"/>
-    <col width="15" customWidth="1" min="58" max="58"/>
-    <col width="15" customWidth="1" min="59" max="59"/>
-    <col width="15" customWidth="1" min="60" max="60"/>
-    <col width="15" customWidth="1" min="61" max="61"/>
-    <col width="15" customWidth="1" min="62" max="62"/>
-    <col width="15" customWidth="1" min="63" max="63"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="23" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
+          <t>2023-08-02</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2023-08-03</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-08-07</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>2023-08-17</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>2023-07-19</t>
+          <t>2023-08-19</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>2023-07-21</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>2023-07-26</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>2023-07-27</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>2023-07-28</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
-        <is>
-          <t>2023-07-31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>2023-08-01</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>2023-08-02</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>2023-08-04</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>2023-08-08</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
@@ -815,99 +635,59 @@
       <c r="A3" t="n">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="AP3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AQ3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AR3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AS3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AU3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AW3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AX3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AY3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
-        </is>
-      </c>
-      <c r="AZ3" s="1" t="inlineStr">
-        <is>
-          <t>Серега</t>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>46 Серега</t>
         </is>
       </c>
     </row>
@@ -915,24 +695,74 @@
       <c r="A4" t="n">
         <v>102</v>
       </c>
-      <c r="AT4" s="1" t="inlineStr">
-        <is>
-          <t>Семенов</t>
-        </is>
-      </c>
-      <c r="AU4" s="1" t="inlineStr">
-        <is>
-          <t>Семенов</t>
-        </is>
-      </c>
-      <c r="AV4" s="1" t="inlineStr">
-        <is>
-          <t>Семенов</t>
-        </is>
-      </c>
-      <c r="AW4" s="1" t="inlineStr">
-        <is>
-          <t>Семенов</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>a1 Маша</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>43 Семенов</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>43 Семенов</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>43 Семенов</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>43 Семенов</t>
         </is>
       </c>
     </row>
@@ -950,19 +780,24 @@
       <c r="A7" t="n">
         <v>105</v>
       </c>
-      <c r="AG7" s="1" t="inlineStr">
-        <is>
-          <t>Петя</t>
-        </is>
-      </c>
-      <c r="AH7" s="1" t="inlineStr">
-        <is>
-          <t>Петя</t>
-        </is>
-      </c>
-      <c r="AI7" s="1" t="inlineStr">
-        <is>
-          <t>Петя</t>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>44 Петя</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44 Петя</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44 Петя - 777 Федоров</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>777 Федоров</t>
         </is>
       </c>
     </row>
@@ -977,112 +812,57 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
+          <t>47 Маша</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>Вася</t>
-        </is>
-      </c>
-      <c r="AP9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AQ9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AR9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AS9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AT9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AU9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AV9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AW9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AX9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AY9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
-        </is>
-      </c>
-      <c r="AZ9" s="1" t="inlineStr">
-        <is>
-          <t>Маша</t>
+          <t>47 Маша</t>
         </is>
       </c>
     </row>
@@ -1090,59 +870,94 @@
       <c r="A10" t="n">
         <v>108</v>
       </c>
-      <c r="AP10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AQ10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AR10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AS10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AT10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AU10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AV10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AW10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AX10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AY10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
-        </is>
-      </c>
-      <c r="AZ10" s="1" t="inlineStr">
-        <is>
-          <t>Даша</t>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>48 Филипп</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>48 Филипп - sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="X10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="Y10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="AA10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
+        </is>
+      </c>
+      <c r="AB10" s="2" t="inlineStr">
+        <is>
+          <t>sp1 Анатолий</t>
         </is>
       </c>
     </row>
@@ -1159,6 +974,56 @@
     <row r="13">
       <c r="A13" t="n">
         <v>201</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123456/12345 Гена</t>
+        </is>
       </c>
     </row>
     <row r="14">
